--- a/dist/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
+++ b/dist/整合結果/聯合產經/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+          <t>向「地面師」宣戰 北富銀地政局聯手阻詐建立地籍異動防線</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+          <t>https://udn.com/news/story/7241/8810010?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+          <t>輝達在台徵才年薪上看550萬元！企業大搶才 專家建議高中開始培育</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+          <t>https://udn.com/news/story/7240/8809987?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+          <t>指揮大師梵志登 率長榮交響樂團全台巡演</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+          <t>https://udn.com/news/story/7241/8809956?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
+          <t>美國關稅衝擊台企 放無薪假人數首破千、2周增18家</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
+          <t>https://vip.udn.com/vip/story/122468/8809906?from=udn-category</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
+          <t>夏季加盟展登場 AI 結合美業、餐飲、零售同步展出</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809951?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>點子農場／台灣人 世界人</t>
+          <t>主管交辦任務時關鍵不在你會不會？菲女狼：不只看能力還有「意圖」</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8809785?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>經濟選書／人機互補 重新定義新關係</t>
+          <t>華碩攜手微軟 ROG Xbox Ally 電競掌機下半年首波登台</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809948?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
+          <t>新台幣午盤升6.4分 暫收29.604元</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809915?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>數位行銷／品牌敘事 進入AI重構時代</t>
+          <t>台積電進駐生態科學園區？ 國科會：以廠商公告為主</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810002?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>專家教你保／善用保險傳承資產 一舉數得</t>
+          <t>李同榮：這波房市跌勢、跌幅不會太久和太深 曝下波房市主流</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809889?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>女性專屬保單 強化防護網</t>
+          <t>勞長洪申翰：高風險產業職安 將提強化風險管控計畫</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809799?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>保險小百科／展期定期險 保戶添彈性</t>
+          <t>沒帶身分證也能領！7-ELEVEN 零元取件升級 再推包裹也能叫外送</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809770?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>「終身醫療」分紅保單 退休靠山</t>
+          <t>創投公會拋「3改革建言」籲打造創新雨林 蕭美琴親接見</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809752?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台積電、三星下半年搶單2奈米 晶圓一哥製程良率突破60%</t>
+          <t>美國關稅衝擊無薪假首破千人 兩周增18家、362人</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809031?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8809726?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
+          <t>科技人才荒壓力不是因大陸挖角 專家：國內這現象才是關鍵</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809721?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
+          <t>地緣戰爭不斷致金價大漲 台銀黃金存摺牌價月漲幅7.1%勝台股大盤</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8809712?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
+          <t>南科乘AI浪潮1至4月營業額近兆 再創台灣科學園區新紀錄</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809660?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
+          <t>下波房產主流「AI 科技宅」？ 四圖秒懂全台四大矽谷</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8809659?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>名家觀點／夢想的力量</t>
+          <t>HBM改變三大記憶體賽局 SK海力士首季營收首度超越三星奪冠</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8809863?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南亞科私募 大咖參一腳</t>
+          <t>環島上路前先做這件事 才能「騎」全保障、無後顧之憂</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810027?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
+          <t>經濟金融情勢未明 信義房屋觀察：竹科房市短暫盤整後回溫</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810052?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>國科會規畫 設科學園區 首選國有地</t>
+          <t>威力彩今晚頭獎上看12.6億 力拚今年頭獎次高</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810198?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
+          <t>格斯科技挺進國防能源戰略高地 以次世代電芯對接軍用無人機高標需求</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7240/8810532?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
+          <t>央行下半年是否降息？ 國泰台大產學團隊：三個前提必須滿足才有可能</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810531?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>本周財經焦點</t>
+          <t>國泰台大產學團隊估美聯準會今年最多降息2碼 9月將先降1碼</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7238/8810524?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
+          <t>新台幣升勢再起 哈日族喜迎近一年最甜換匯價</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7239/8810438?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>金融業對陸曝險續降 保險降幅最大</t>
+          <t>領導人一定都很外向、較易成功？ 文獻顛覆印象：內向型領導人團隊績效更佳</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/121591/8808772?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
+          <t>一表看北士科15大建案 專家：未來軟橋段每坪上看150萬元</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810480?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>新聞中的法律／管理商標代理人 邁步</t>
+          <t>星宇航空大手筆採購 彭博：接近敲定10多架空巴客機訂單</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
+          <t>https://udn.com/news/story/7241/8810451?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+          <t>什麼情況下台灣央行會降息？ 國泰台大產學合作計畫教授這樣說</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+          <t>https://udn.com/news/story/7239/8810401?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,981 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>臺企銀聲明積極響應政府政策 持續支持新青安貸款</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8810370?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>鴻海研究院研發先進晶片獲 IEEE ISPSD 肯定 突破 AI 伺服器關鍵技術</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8810325?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>許舒博：中東油國都設核電廠 籲政府別堅守非核家園</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8810323?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>日勝生啟動台中文心崇德站 TOD 開發案 預計2028年完工</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8810314?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>攸關75萬租屋族 中央函租金補貼須自籌40% 北市痛批：亂搞</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8810305?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>新光盃熱門街舞大賽不斷創新 首度移師台北體育館</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8810301?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>新保助永豐銀行打造 AI 智慧門禁新標竿</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8810275?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>星宇航空海外高爾夫球巡迴賽 首度從台中啟程</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8810273?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>元大銀打造資金避風港 三大存款專案一次到位</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8810261?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>永豐金證券2025年第2季產業投資論壇 市場聚焦 AI 應用發展</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8810255?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>國泰金：6月央行不升息 第3季台灣經濟在「陰」「雨」間</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8810247?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>國定假日多四天 勞工對這天期待值達61%，其他三天都超低</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809650?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>台幣逼近29.5元關卡 以29.52作收，升值1.48角</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8810544?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>台幣升勢強勁 今日再現29.5關卡保衛戰</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809638?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>華碩攜微軟推 ROG Xbox Ally 電競掌機！估下半年登台開賣</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809576?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>保險小百科／展期定期險 保戶添彈性</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808809?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>「終身醫療」分紅保單 退休靠山</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808805?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>台積電、三星下半年搶單2奈米 晶圓一哥製程良率突破60%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809031?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>高科技貨品出口管制 經部：新增601個實體 華為、中芯列黑名單</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809029?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>經部：華為、中芯列黑名單 手機、網通台鏈利多</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809040?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／台灣要堅守專精道路</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8808948?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>諾貝爾經濟學獎得主皮薩里德斯專訪／AI世代 同理心、創意技能勝出</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8808950?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>名家觀點／夢想的力量</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809035?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>女性專屬保單 強化防護網</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808804?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>南亞科私募 大咖參一腳</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809038?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>國科會規畫 設科學園區 首選國有地</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809051?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>台積電2奈米搶手 帶旺中砂、光洋科、昇陽半等協力廠</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809053?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>貨量急速下降、運力過剩 美西線運價雪崩 衝擊貨櫃三雄</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808988?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>本周財經焦點</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809019?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>代辦貸款假冒銀行還找法院強制執行 金管會提醒勿上當</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8808979?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>金融業對陸曝險續降 保險降幅最大</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808978?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>房屋標準價格今年將有13縣市重評 三地方調高</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8808827?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>新聞中的法律／管理商標代理人 邁步</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7243/8808823?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>國科會籌設「生態科學園區」 南科四期有譜傳台積電進駐</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809049?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>專家教你保／善用保險傳承資產 一舉數得</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8808806?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>數位行銷／品牌敘事 進入AI重構時代</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808862?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>智慧經營／CATCHPLAY集團執行長楊麗貞 台劇出海 賣普世價值</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808855?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>AI浪潮助攻 南科前四月營業額逼近兆元</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8809558?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>近八成美企業採用AI代理 近五成擬增加員工人數</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7238/8809551?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>貿聯大客戶Credo、特斯拉近期相繼報喜 業績逐季走揚</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808738?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>汽車零組件市況明朗化 東陽、和大迎補庫存潮</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5710/8808758?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10檔股價強勢勇將領軍衝 國泰金、台積等攻高先鋒部隊</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5607/8808762?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>第一類接觸／其陽攻散熱火力全開 樂觀營運逐季成長</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11074/8808731?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>「超級央行周」登場 新台幣開升1.8分、持續走升恐再測29.5元</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809528?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>半導體風雲／拚矽光子賽局 台積、日月光2陣營會合體？</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122867/8808682?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>傳辦新青安收入不達標被退件？ 公股銀：配合政策辦理</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809408?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>52年老廠新生 隆興冷凍廠打造智慧冷鏈物流</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8809362?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>新台幣開盤升1.8分 為29.65元</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://udn.com/news/story/7239/8809361?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>黃仁勳說量子電腦轉折點到了 大陸本源悟空早達全球最大使用規模 為何這麼神速？</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/5604/8805600?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>推動媒體議價法很難嗎？數位發展部「凝聚」跨出第一步的共識比較重要</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805607?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>蘋果開發者大會 WWDC 市場都說沒驚喜 為何蘋果光亮不起來了？</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805589?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>比CPO、BBU還受外資喜愛 散熱雙雄為何熱到發燙？</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://money.udn.com/money/story/11162/8805595?udnredirection</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>全球投資人緊盯 川普「899條款」殺傷力有多大？</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://vip.udn.com/vip/story/122863/8807554?from=udn-category</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>蘋果攻AI眼鏡設計朝模組化發展 鴻海、廣達有望拿下代工訂單</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7240/8808995?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>點子農場／台灣人 世界人</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808859?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>經濟選書／人機互補 重新定義新關係</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8808860?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>元大銀行打造資金避風港 三大存款專案穩健收益一次到位</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7239/8809609?from=udn-catelistnews_ch2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>日月光與高雄市教育局攜手辦理產業營隊參訪 提供學生更多學習機會</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://udn.com/news/story/7241/8810558?from=udn-catelistnews_ch2</t>
         </is>
       </c>
     </row>
